--- a/flows/KCCA_fund_flow_data.xlsx
+++ b/flows/KCCA_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B605"/>
+  <dimension ref="A1:B623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6485,6 +6485,186 @@
         <v>-0.03312976</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.001308037</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.010945245</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.0012377116</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-1.4918863</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.018700732</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.032666072</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.055535678</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.034433212</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.006759246</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.025874013</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.042317215</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.052055724</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.06514979999999999</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.06478278</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.014820752</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1.4114287</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.032331906</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.049417485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
